--- a/Documentation and designs/Sprint_info/Sprint12.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint12.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djnenadovic\Desktop\MATF\MasterAudioTechnologyFunctions\Documentation and designs\Sprint_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GIT\MasterAudioTechnologyFunctions\Documentation and designs\Sprint_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="2" r:id="rId1"/>
     <sheet name="Sprint" sheetId="1" r:id="rId2"/>
     <sheet name="Chart" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -172,13 +172,13 @@
     <t>Redesign old designs</t>
   </si>
   <si>
-    <t>In progress</t>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -448,22 +448,7 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color theme="0"/>
@@ -473,31 +458,6 @@
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -553,7 +513,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -598,7 +558,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -630,7 +589,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sr-Latn-RS"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -777,7 +736,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B6F-4357-9072-E062BD4EF823}"/>
             </c:ext>
@@ -881,46 +840,46 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2B6F-4357-9072-E062BD4EF823}"/>
             </c:ext>
@@ -1002,7 +961,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="sr-Latn-RS"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1039,7 +998,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107991856"/>
@@ -1095,7 +1054,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1120,7 +1078,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="sr-Latn-RS"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1151,7 +1109,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107992248"/>
@@ -1202,7 +1160,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sr-Latn-RS"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1250,7 +1208,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sr-Latn-RS"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1817,7 +1775,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,13 +2101,13 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>38</v>
       </c>
@@ -2157,7 +2115,7 @@
       <c r="C1" s="23"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +2127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -2181,7 +2139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -2193,7 +2151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2221,24 +2179,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
@@ -2248,7 +2206,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
@@ -2257,7 +2215,7 @@
         <v>42618</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -2322,7 +2280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>39</v>
       </c>
@@ -2332,7 +2290,9 @@
       <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E5" s="2">
         <v>3</v>
       </c>
@@ -2348,21 +2308,25 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2">
+        <v>3</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2">
         <f>E5-SUM(G5:T5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
@@ -2378,21 +2342,25 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="R6" s="2">
+        <v>5</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2">
         <f t="shared" ref="U6:U14" si="0">E6-SUM(G6:T6)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
@@ -2408,15 +2376,17 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>41</v>
       </c>
@@ -2437,7 +2407,9 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2451,10 +2423,10 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2">
         <f t="shared" ref="U8:U10" si="1">E8-SUM(G8:T8)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="27"/>
       <c r="C9" s="2" t="s">
@@ -2473,7 +2445,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>3</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2485,10 +2459,10 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="28"/>
       <c r="C10" s="2" t="s">
@@ -2507,7 +2481,9 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>3</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2519,10 +2495,10 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>40</v>
       </c>
@@ -2532,16 +2508,22 @@
       <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E11" s="2">
         <v>5</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>5</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2553,27 +2535,33 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="27"/>
       <c r="C12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2">
+        <v>13</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -2583,20 +2571,24 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="28"/>
       <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2604,7 +2596,9 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="2">
+        <v>2</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -2613,10 +2607,10 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -2641,7 +2635,7 @@
       </c>
       <c r="I14" s="2">
         <f t="shared" ref="I14:T14" si="2">SUM(I5:I13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
@@ -2649,7 +2643,7 @@
       </c>
       <c r="K14" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
@@ -2657,11 +2651,11 @@
       </c>
       <c r="M14" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="2"/>
@@ -2677,7 +2671,7 @@
       </c>
       <c r="R14" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S14" s="2">
         <f t="shared" si="2"/>
@@ -2689,10 +2683,10 @@
       </c>
       <c r="U14" s="2">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2762,7 +2756,7 @@
       </c>
       <c r="U15" s="10"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2784,79 +2778,79 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="T16" s="2">
         <f>S16-SUM(T5:T13)</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="U16" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -2872,34 +2866,34 @@
     <mergeCell ref="B8:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F7 F11:F13">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:U7 U11:U14">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F10">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:U10">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2933,7 +2927,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
